--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2008996.387153559</v>
+        <v>2048660.811459859</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104212</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484458</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5808777.445725708</v>
+        <v>5894320.469966969</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>307.1953825260219</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>12.95827676142951</v>
       </c>
       <c r="V4" t="n">
-        <v>160.2309512811987</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>286.2721000371769</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>402.2420116363714</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.54445708395707</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>315.829469265149</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>15.67434391863634</v>
+        <v>286.2388530112179</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>24.62703520776717</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>133.998652443479</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>88.42627147293217</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170493</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932899</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>68.46940294816599</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>129.7139627068453</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>46.16917954999339</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>154.7429394224636</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2713,25 +2713,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.34780583513519</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>198.1733121300834</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6415919753818</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3080,7 +3080,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.056777352257</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772987</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>26.24351759540819</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.99078056551</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>23.92593778768311</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>248.6779178732421</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
-        <v>312.1810694242257</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864814</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>102.4055300867677</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>14.84910096037254</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>26.24351759540774</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>78.47678022721453</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>944.6683834787607</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
         <v>87.50503495329731</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4370,10 +4370,10 @@
         <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1370.967953963669</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4495,10 +4495,10 @@
         <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="O4" t="n">
         <v>1349.676536110076</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V4" t="n">
-        <v>851.7801684713901</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W4" t="n">
-        <v>851.7801684713901</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X4" t="n">
-        <v>851.7801684713901</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y4" t="n">
-        <v>851.7801684713901</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>978.4627999561583</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497385</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6687723645871</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9344315632864</v>
+        <v>74.67620151272524</v>
       </c>
       <c r="F5" t="n">
-        <v>323.1074060128981</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.128202908532</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1411.272748319566</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1004.967686060605</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1000.721966400662</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>614.4535569886648</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>441.8918454718897</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>441.8918454718897</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>272.133841722627</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>95.42678768438319</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2362.377960771849</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2116.498514350304</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1551.11000547384</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1279.083601060131</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1033.691846393544</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>806.272175707652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>946.8034234626114</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2217491998797</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.348713607462</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>969.0625899071151</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2249.599768769382</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>1811.457295952805</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1375.54751112725</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E11" t="n">
-        <v>941.772766285545</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F11" t="n">
-        <v>513.9053366947528</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G11" t="n">
-        <v>112.5075053180167</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H11" t="n">
-        <v>96.67483469313149</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2309.599342541221</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2309.599342541221</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2309.599342541221</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3289.779009111527</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944924</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.587669903518</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840411</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.022633713449</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4270.800331030466</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3908.183380964292</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3503.327926375326</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3084.185462954636</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2675.89933925429</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.1686721107441</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>633.606960593969</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548102</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055476</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673038</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313149</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.55153211313</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338912</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309254</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173586</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2697.502628878958</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.093075893928</v>
+        <v>2697.502628878958</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.213629472383</v>
+        <v>2451.623182457413</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.780628725488</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.825120595919</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.79871618221</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.406961515623</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>997.9872908297311</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.897252701281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313149</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2478.753407294277</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3458.933073864584</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4287.24294869798</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4833.741734656574</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840411</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.02263371345</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4270.800331030467</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.480864896191</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.625410307224</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.482946886535</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.196823186188</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.168672110744</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6069605939689</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7289677954915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>297.9709640462288</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>121.2639100079849</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67483469313149</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313149</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578212</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.093075893928</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.213629472383</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.780628725488</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.825120595919</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.79871618221</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.406961515623</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.9872908297311</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.395033719319</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.252560902743</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.342776077187</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.568031235482</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.70060164469</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.3027702679539</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.17261571117011</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571117011</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>534.427303164088</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.837561375125</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.837561375125</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.837561375125</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.668060013458</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.977934846854</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805449</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558506</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742342</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.817898663387</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.595595980403</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.97864591423</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.123191325263</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.980727904574</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.694604204227</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.344360702463</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391052</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856585</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126122</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287738</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949576</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571117011</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716277</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.79461383784</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030053</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822261</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.6686527881013</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>777.1069412713264</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>611.228948472849</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>441.4709447235863</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>264.7638906853425</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571117011</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571117011</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571117011</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>185.75230087586</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469955</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.20450439587</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779296</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.590856911966</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.711410490421</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2032.278409743527</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1745.322901613957</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.298696859568</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.90694219298</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.487271507089</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477111</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C22" t="n">
-        <v>780.195165830936</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,19 +5999,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.559169283196</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6427,7 +6427,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419178</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,22 +6710,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.5453418998819</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>778.4004197559669</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>612.9392163303496</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>443.598001953947</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.3077372885632</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.133251687251</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K37" t="n">
-        <v>464.288381951757</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.906758984058</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2695.552220073046</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2450.089563024361</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2172.073351650326</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>1885.534632893617</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.925017852768</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.950052559041</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.947171246009</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2582.520192247199</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817505</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650902</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609496</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617394</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.030726836648</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C40" t="n">
-        <v>917.8858046927329</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D40" t="n">
-        <v>752.4246012671156</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E40" t="n">
-        <v>583.0833868907126</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>406.7931222253288</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>241.6186366240165</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162808</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517564</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375628</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.773587326943</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2066.583771293365</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1780.045052536655</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.435437495807</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1508.435437495807</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y40" t="n">
-        <v>1281.432556182775</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2400.965882556309</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996485</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.138473543789</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074945</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570122</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531361</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921241</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221303</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080308</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.631141345267</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915574</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.12068274897</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707564</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.77353346062</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017317</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263216</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.082497953093</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.882337259779</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3653.443672043672</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>3234.717997995843</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2826.848663668356</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605052</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971475</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437007</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706544</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>226.756212586816</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228529999</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.69914382967</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958823</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610476</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402684</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>974.5561645135695</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>802.4112423696546</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>636.9500389440373</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>467.6088245676344</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>291.3185599022506</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>291.3185599022506</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216771</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982424</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337181</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660192</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411272</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323379</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558061</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686733</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2719.563042686733</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2474.100385638048</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U43" t="n">
-        <v>2196.084174264014</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V43" t="n">
-        <v>1909.545455507304</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W43" t="n">
-        <v>1637.935840466456</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1392.960875172728</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.957993859697</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2246.554654575833</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1808.828971132117</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1373.335975679421</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>939.9780202105763</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>512.5273799926442</v>
+        <v>793.2056155771604</v>
       </c>
       <c r="G44" t="n">
-        <v>111.5463379887681</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960291</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625207</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520698</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773558</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2472.373978117848</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2472.373978117848</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3452.553644688155</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4280.863519521551</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4827.362305480146</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480146</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036842</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.476783282741</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.671269972618</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279304</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.032444063197</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3080.306770015368</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2672.437435687881</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008957</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840912</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.0518264110449</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272065</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933904</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700605</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362728</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014381</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806588</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.9593363222342</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>772.8144141783191</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>607.3532107527018</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>438.0119963762991</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>261.7217317109153</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>96.54724610960291</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>96.54724610960291</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386328</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741084</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064096</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273647</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2716.474818127123</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.966214495398</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2444.503557446714</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2166.487346072679</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V46" t="n">
-        <v>1879.948627315969</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.339012275121</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.364046981393</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.361165668361</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8143,13 +8143,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>952.8480085222157</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>37.7915423607983</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>980.6368673114471</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880010055</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>31.47655186291968</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>270.5645090925796</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>141.6500182959467</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>270.5645090925796</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>149.3971519075258</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>223.136960819578</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>88.19489769745806</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>26.97216184894938</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>41.29624514453985</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.9928159404437</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>26.55813138705219</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>121.1673571850538</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>35.68500100063018</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>270.9771305717119</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>130.9928159404442</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>486385.9548836031</v>
+        <v>496954.5569029991</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>486385.9548836031</v>
+        <v>498857.4569412704</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493938.0330745729</v>
+        <v>515023.3124152998</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493938.0330745729</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>503366.3105378194</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>515023.3124152996</v>
+        <v>515023.3124152998</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>515161.1576735032</v>
+        <v>515023.3124152997</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>515161.1576735031</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>505732.8802102567</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>494075.8783327763</v>
+        <v>515023.3124152998</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>482532.5879013676</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013675</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>454759.0240894597</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="F2" t="n">
-        <v>454759.0240894596</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>463439.4535581969</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="H2" t="n">
         <v>474171.825723617</v>
@@ -26344,16 +26344,16 @@
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474384.309808666</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
-        <v>474384.3098086661</v>
+        <v>474171.8257236168</v>
       </c>
       <c r="O2" t="n">
-        <v>465703.8803399288</v>
+        <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>454971.5081745086</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501602</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998291</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879113986</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254607</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387724</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622429</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995836</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932459</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65216.72000285307</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="F4" t="n">
-        <v>65216.72000285307</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>66461.57520787211</v>
+        <v>68000.69828933272</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
@@ -26445,19 +26445,19 @@
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68354.08299527944</v>
+        <v>68000.69828933288</v>
       </c>
       <c r="N4" t="n">
-        <v>68354.08299527944</v>
+        <v>68000.6982893329</v>
       </c>
       <c r="O4" t="n">
-        <v>67109.22779026038</v>
+        <v>68000.69828933288</v>
       </c>
       <c r="P4" t="n">
-        <v>65570.10470879971</v>
+        <v>68000.69828933285</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048928</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373053</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842731</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81087.67285791982</v>
+        <v>81087.67285791988</v>
       </c>
       <c r="C6" t="n">
-        <v>223278.9735176297</v>
+        <v>180761.7074051031</v>
       </c>
       <c r="D6" t="n">
-        <v>223278.9735176296</v>
+        <v>240155.8265369532</v>
       </c>
       <c r="E6" t="n">
-        <v>81942.6033538917</v>
+        <v>146074.5552680593</v>
       </c>
       <c r="F6" t="n">
-        <v>316069.4297198266</v>
+        <v>328429.664489109</v>
       </c>
       <c r="G6" t="n">
-        <v>313049.1365307216</v>
+        <v>328429.664489109</v>
       </c>
       <c r="H6" t="n">
-        <v>318037.5040759457</v>
+        <v>328429.6644891092</v>
       </c>
       <c r="I6" t="n">
-        <v>328452.8888284917</v>
+        <v>328429.6644891091</v>
       </c>
       <c r="J6" t="n">
-        <v>217438.4234835015</v>
+        <v>217415.1991441189</v>
       </c>
       <c r="K6" t="n">
-        <v>328452.8888284917</v>
+        <v>275383.8098503366</v>
       </c>
       <c r="L6" t="n">
-        <v>328452.8888284917</v>
+        <v>319037.3627624866</v>
       </c>
       <c r="M6" t="n">
-        <v>133030.8955563632</v>
+        <v>176229.4935511214</v>
       </c>
       <c r="N6" t="n">
-        <v>328374.2668559467</v>
+        <v>328429.6644891088</v>
       </c>
       <c r="O6" t="n">
-        <v>322837.0061659379</v>
+        <v>328429.664489109</v>
       </c>
       <c r="P6" t="n">
-        <v>315990.8077472816</v>
+        <v>328429.6644891088</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389626</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365155</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370036</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314394</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,22 +27012,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548292</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699511902</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499318</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548292</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699511902</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628231</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>97.00787993732121</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>262.6903939779962</v>
       </c>
       <c r="V4" t="n">
-        <v>123.8550017670751</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>111.1117530257919</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.70902715011101</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>119.3909051404735</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>99.12156952133341</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>6.598573539425463e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>7.335748176154469e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.039137308914149e-12</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34863,13 +34863,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>952.8480085222157</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35486,25 +35486,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35577,10 +35577,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956072</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>37.7915423607983</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908051</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>980.6368673114471</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35960,7 +35960,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
         <v>661.3192390158824</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.9464139752283</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871727</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821186</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880010055</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>31.47655186291968</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
